--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd274-Pdcd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd274-Pdcd1.xlsx
@@ -540,28 +540,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.625722</v>
+        <v>10.08846466666667</v>
       </c>
       <c r="H2">
-        <v>40.877166</v>
+        <v>30.265394</v>
       </c>
       <c r="I2">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="J2">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.015569</v>
+        <v>0.2773296666666667</v>
       </c>
       <c r="N2">
-        <v>0.046707</v>
+        <v>0.8319890000000001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.212138865818</v>
+        <v>2.797830543185111</v>
       </c>
       <c r="R2">
-        <v>1.909249792362</v>
+        <v>25.180474888666</v>
       </c>
       <c r="S2">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
       <c r="T2">
-        <v>0.4351608079099069</v>
+        <v>0.2597171077778241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,22 +608,22 @@
         <v>6.848049</v>
       </c>
       <c r="I3">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312483</v>
       </c>
       <c r="J3">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312482</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.015569</v>
+        <v>0.2773296666666667</v>
       </c>
       <c r="N3">
-        <v>0.046707</v>
+        <v>0.8319890000000001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.035539091627</v>
+        <v>0.6330557154956667</v>
       </c>
       <c r="R3">
-        <v>0.319851824643</v>
+        <v>5.697501439461</v>
       </c>
       <c r="S3">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312483</v>
       </c>
       <c r="T3">
-        <v>0.07290139770077578</v>
+        <v>0.05876531725312482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,28 +664,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.555393</v>
+        <v>14.90894133333333</v>
       </c>
       <c r="H4">
-        <v>19.666179</v>
+        <v>44.726824</v>
       </c>
       <c r="I4">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="J4">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.015569</v>
+        <v>0.2773296666666667</v>
       </c>
       <c r="N4">
-        <v>0.046707</v>
+        <v>0.8319890000000001</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.102060913617</v>
+        <v>4.134691730326223</v>
       </c>
       <c r="R4">
-        <v>0.9185482225529999</v>
+        <v>37.21222557293601</v>
       </c>
       <c r="S4">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
       <c r="T4">
-        <v>0.2093577216713322</v>
+        <v>0.3838153030278664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,34 +720,34 @@
         <v>22</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.2836386666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.850916</v>
+      </c>
+      <c r="I5">
+        <v>0.007301984652235982</v>
+      </c>
+      <c r="J5">
+        <v>0.007301984652235982</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.05428633333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.162859</v>
-      </c>
-      <c r="I5">
-        <v>0.001733727186845574</v>
-      </c>
-      <c r="J5">
-        <v>0.001733727186845574</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.015569</v>
+        <v>0.2773296666666667</v>
       </c>
       <c r="N5">
-        <v>0.046707</v>
+        <v>0.8319890000000001</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.0008451839236666666</v>
+        <v>0.07866141688044445</v>
       </c>
       <c r="R5">
-        <v>0.007606655313</v>
+        <v>0.7079527519240001</v>
       </c>
       <c r="S5">
-        <v>0.001733727186845574</v>
+        <v>0.007301984652235982</v>
       </c>
       <c r="T5">
-        <v>0.001733727186845574</v>
+        <v>0.007301984652235982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,28 +788,28 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.793839333333333</v>
+        <v>11.28032366666667</v>
       </c>
       <c r="H6">
-        <v>26.381518</v>
+        <v>33.840971</v>
       </c>
       <c r="I6">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="J6">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.015569</v>
+        <v>0.2773296666666667</v>
       </c>
       <c r="N6">
-        <v>0.046707</v>
+        <v>0.8319890000000001</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.1369112845806666</v>
+        <v>3.128368402368778</v>
       </c>
       <c r="R6">
-        <v>1.232201561226</v>
+        <v>28.155315621319</v>
       </c>
       <c r="S6">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
       <c r="T6">
-        <v>0.2808463455311396</v>
+        <v>0.2904002872889486</v>
       </c>
     </row>
   </sheetData>
